--- a/kma_mm/kma_be/src/exports/phulucbang/phu_luc_bang_sinh_vien_6.xlsx
+++ b/kma_mm/kma_be/src/exports/phulucbang/phu_luc_bang_sinh_vien_6.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
   <si>
     <t>BAN CƠ YẾU CHÍNH PHỦ</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Độc lập - Tự do - Hạnh phúc</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 24 tháng 6 năm 2025</t>
+    <t>Hà Nội, ngày 31 tháng 7 năm 2025</t>
   </si>
   <si>
     <t>PHỤ LỤC VĂN BẰNG</t>
@@ -115,28 +115,46 @@
     <t>F</t>
   </si>
   <si>
+    <t>nhugns</t>
+  </si>
+  <si>
+    <t>triết</t>
+  </si>
+  <si>
+    <t>Thực tập tốt nghiệp</t>
+  </si>
+  <si>
     <t>lập trình cb</t>
   </si>
   <si>
-    <t>triết</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Tổng số tín chỉ tích luỹ: 2</t>
+    <t>Đồ Án Tốt Nghiệp</t>
+  </si>
+  <si>
+    <t>tin học</t>
+  </si>
+  <si>
+    <t>Chuyên đề tổng hợp về phát triển phần mềm</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Kiến thức cơ sở trong phát triển phần mềm</t>
+  </si>
+  <si>
+    <t>Tổng số tín chỉ tích luỹ: 0</t>
   </si>
   <si>
     <t>Giáo dục thể chất:</t>
   </si>
   <si>
-    <t>Điểm TB tích luỹ toàn khoá (hệ 4): 2</t>
+    <t>Điểm TB tích luỹ toàn khoá (hệ 4): 0</t>
   </si>
   <si>
     <t>Giáo dục Quốc phòng và an ninh:</t>
   </si>
   <si>
-    <t>Điểm TB tích luỹ toàn khoá (hệ 10): 5.00</t>
+    <t>Điểm TB tích luỹ toàn khoá (hệ 10): 0.00</t>
   </si>
   <si>
     <t>Chuẩn đầu ra Tiếng anh:</t>
@@ -617,7 +635,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M36"/>
   <sheetFormatPr defaultRowHeight="18" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
@@ -948,8 +966,8 @@
       <c r="C19" s="10">
         <v>3</v>
       </c>
-      <c r="D19" s="10">
-        <v>3.35</v>
+      <c r="D19" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
@@ -959,23 +977,21 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J19" s="10">
-        <v>3</v>
-      </c>
-      <c r="K19" s="10">
-        <v>3.48</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>33</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
@@ -987,246 +1003,256 @@
       <c r="C20" s="10">
         <v>2</v>
       </c>
-      <c r="D20" s="10">
-        <v>6.3</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10">
+        <v>8</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="10">
+        <v>6</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10">
+        <v>9</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="10">
         <v>2</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="K21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>4</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10">
+        <v>10</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="J22" s="10">
+        <v>5</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>5</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="12" t="s">
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10">
+        <v>11</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="J23" s="10">
+        <v>3</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
+      <c r="H26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="G27" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
+      <c r="H27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="G28" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
+      <c r="H28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1288,21 +1314,13 @@
       <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="H31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" t="s">
-        <v>29</v>
-      </c>
+      <c r="H31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1326,19 +1344,155 @@
       <c r="G32" t="s">
         <v>29</v>
       </c>
-      <c r="H32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="H32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1374,22 +1528,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="G17:G24"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
